--- a/doc/log/log_201608040124_周成 .xlsx
+++ b/doc/log/log_201608040124_周成 .xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="129">
   <si>
     <t>日期</t>
   </si>
@@ -599,6 +599,38 @@
   </si>
   <si>
     <t>数据同步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00-18:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组项目重建</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成重建</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下次提交代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:00-16:10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天更新代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等下一步</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -943,10 +975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1591,6 +1623,40 @@
       </c>
       <c r="E38" s="4" t="s">
         <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>43297</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>43300</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/log_201608040124_周成 .xlsx
+++ b/doc/log/log_201608040124_周成 .xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="133">
   <si>
     <t>日期</t>
   </si>
@@ -631,6 +631,22 @@
   </si>
   <si>
     <t>等下一步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00-18:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从我所负责的实体里提交代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户反馈功能正在慢慢形成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完善</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -975,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1657,6 +1673,23 @@
       </c>
       <c r="E40" s="4" t="s">
         <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>43305</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/log_201608040124_周成 .xlsx
+++ b/doc/log/log_201608040124_周成 .xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="137">
   <si>
     <t>日期</t>
   </si>
@@ -647,6 +647,21 @@
   </si>
   <si>
     <t>继续完善</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00-18:01</t>
+  </si>
+  <si>
+    <t>实体完善</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完善</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组组长分配任务</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -991,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1690,6 +1705,23 @@
       </c>
       <c r="E41" s="4" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>43311</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/log_201608040124_周成 .xlsx
+++ b/doc/log/log_201608040124_周成 .xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="141">
   <si>
     <t>日期</t>
   </si>
@@ -662,6 +662,22 @@
   </si>
   <si>
     <t>小组组长分配任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:00-18:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成提交</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下个星期继续</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1006,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1722,6 +1738,23 @@
       </c>
       <c r="E42" s="4" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>43318</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/log_201608040124_周成 .xlsx
+++ b/doc/log/log_201608040124_周成 .xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="145">
   <si>
     <t>日期</t>
   </si>
@@ -678,6 +678,21 @@
   </si>
   <si>
     <t>下个星期继续</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:00-18:01</t>
+  </si>
+  <si>
+    <t>继续提交</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组讨论下一步</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1022,10 +1037,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1755,6 +1770,23 @@
       </c>
       <c r="E43" s="4" t="s">
         <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43326</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/log_201608040124_周成 .xlsx
+++ b/doc/log/log_201608040124_周成 .xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="149">
   <si>
     <t>日期</t>
   </si>
@@ -693,6 +693,21 @@
   </si>
   <si>
     <t>小组讨论下一步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:00-18:02</t>
+  </si>
+  <si>
+    <t>提交ing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成提交</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论完结</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1037,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1787,6 +1802,23 @@
       </c>
       <c r="E44" s="4" t="s">
         <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43332</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/log_201608040124_周成 .xlsx
+++ b/doc/log/log_201608040124_周成 .xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="153">
   <si>
     <t>日期</t>
   </si>
@@ -708,6 +708,22 @@
   </si>
   <si>
     <t>讨论完结</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-15:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改之前的错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>留待修改</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1052,10 +1068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1819,6 +1835,23 @@
       </c>
       <c r="E45" s="4" t="s">
         <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>43339</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
